--- a/artfynd/A 34899-2018.xlsx
+++ b/artfynd/A 34899-2018.xlsx
@@ -1973,10 +1973,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111638730</v>
+        <v>111638733</v>
       </c>
       <c r="B13" t="n">
-        <v>77604</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,25 +1985,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6450</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494235.6580186465</v>
+        <v>494228.0384842983</v>
       </c>
       <c r="R13" t="n">
-        <v>6438054.190062653</v>
+        <v>6438279.442008897</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111638733</v>
+        <v>111638730</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>77604</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,25 +2097,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6450</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494228.0384842983</v>
+        <v>494235.6580186465</v>
       </c>
       <c r="R14" t="n">
-        <v>6438279.442008897</v>
+        <v>6438054.190062653</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 34899-2018.xlsx
+++ b/artfynd/A 34899-2018.xlsx
@@ -1973,10 +1973,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111638733</v>
+        <v>111638730</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>77604</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,25 +1985,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6450</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494228.0384842983</v>
+        <v>494235.6580186465</v>
       </c>
       <c r="R13" t="n">
-        <v>6438279.442008897</v>
+        <v>6438054.190062653</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111638730</v>
+        <v>111638733</v>
       </c>
       <c r="B14" t="n">
-        <v>77604</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,25 +2097,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6450</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494235.6580186465</v>
+        <v>494228.0384842983</v>
       </c>
       <c r="R14" t="n">
-        <v>6438054.190062653</v>
+        <v>6438279.442008897</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 34899-2018.xlsx
+++ b/artfynd/A 34899-2018.xlsx
@@ -1973,10 +1973,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111638730</v>
+        <v>111638733</v>
       </c>
       <c r="B13" t="n">
-        <v>77604</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,25 +1985,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6450</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494235.6580186465</v>
+        <v>494228</v>
       </c>
       <c r="R13" t="n">
-        <v>6438054.190062653</v>
+        <v>6438279</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2046,19 +2046,9 @@
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-06-08</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2085,10 +2075,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111638733</v>
+        <v>111638730</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>77604</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,25 +2087,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6450</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2125,10 +2115,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494228.0384842983</v>
+        <v>494236</v>
       </c>
       <c r="R14" t="n">
-        <v>6438279.442008897</v>
+        <v>6438054</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2158,19 +2148,9 @@
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-06-08</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
